--- a/importFiles/公営総括.xlsx
+++ b/importFiles/公営総括.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\analysis\importFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D08BB4F-9C27-4BE5-AA5F-27B0120DAC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3452C-D4D0-4B12-9752-C6865498F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27000" windowHeight="13575" activeTab="1" xr2:uid="{A48B726A-5012-4C0F-AAF4-DA14793CCB52}"/>
+    <workbookView xWindow="1800" yWindow="1905" windowWidth="27000" windowHeight="13575" activeTab="1" xr2:uid="{A48B726A-5012-4C0F-AAF4-DA14793CCB52}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイルリスト" sheetId="4" r:id="rId1"/>
@@ -4784,7 +4784,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4999,6 +4999,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -8114,7 +8117,7 @@
   <dimension ref="A1:G1150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D1154" sqref="D1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="24.4" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8172,23 +8175,24 @@
         <v>1.総収益(B)+(C)+(G)(A)</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="65" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B3" s="66">
+    <row r="3" spans="1:7" s="65" customFormat="1" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B3" s="57">
         <v>20</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="71" t="s">
         <v>595</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="65" t="str">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="str">
         <f t="shared" ref="G3:G66" si="0">SUBSTITUTE(SUBSTITUTE(TRIM(C3)," ",""),"　","")</f>
         <v>(1)営業収益(B)</v>
       </c>
@@ -8362,27 +8366,28 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="57" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B12" s="57">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="71" t="s">
         <v>593</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>イ受託工事収益</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>1109</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>(イ)その他</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="65" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" s="65" customFormat="1" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
         <v>1109</v>
       </c>
@@ -8676,7 +8681,7 @@
         <v>2.総費用(E)+(F)+(H)(D)</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="65" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" s="65" customFormat="1" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66" t="s">
         <v>1109</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>キ資産減耗費</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>1109</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" s="65" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" s="65" customFormat="1" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
         <v>1109</v>
       </c>
@@ -9075,7 +9080,7 @@
         <v>エ繰延勘定償却</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>1109</v>
       </c>
@@ -9371,7 +9376,7 @@
         <v>10.その他未処分利益剰余金変動額</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>1109</v>
       </c>
@@ -13056,7 +13061,7 @@
         <v>オ当年度未処分利益剰余金</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="24.4" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="16" t="s">
         <v>1109</v>
       </c>
@@ -32729,13 +32734,8 @@
   <autoFilter ref="A1:G1150" xr:uid="{D49F2901-34FA-4806-8933-3A8880BD23C5}">
     <filterColumn colId="6">
       <filters>
-        <filter val="(1)営業収益(B)"/>
-        <filter val="(1)営業費用(E)"/>
-        <filter val="(2)営業外収益©"/>
-        <filter val="(2)営業外費用(F)"/>
-        <filter val="ウその他営業収益"/>
-        <filter val="オその他営業外費用"/>
-        <filter val="クその他営業費用"/>
+        <filter val="11.当年度未処分利益剰余金(又は当年度未処理欠損金)"/>
+        <filter val="オ当年度未処理欠損金(△)"/>
       </filters>
     </filterColumn>
   </autoFilter>
